--- a/docs/Task Breakdown.xlsx
+++ b/docs/Task Breakdown.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
   <si>
     <t>Phase</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Master Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Overall</t>
   </si>
   <si>
@@ -89,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sales</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sales Order Screen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Master Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,10 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Order Processing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -294,6 +270,18 @@
   </si>
   <si>
     <t>A search box for search any LPO, APO, FPO, and Sales Order based on prefix identifier.  Put this on the top menu item.  And need to build a result page.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developer B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developer C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developer A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,14 +614,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.625" bestFit="1" customWidth="1"/>
@@ -669,36 +657,33 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -706,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -723,19 +708,19 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -743,19 +728,19 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -763,19 +748,19 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -783,16 +768,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -800,19 +785,19 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -820,19 +805,19 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -840,19 +825,19 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
+      <c r="G11" t="s">
         <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -860,19 +845,19 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -880,19 +865,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -900,19 +885,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" t="s">
         <v>38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -920,19 +905,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -940,19 +925,19 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -960,19 +945,19 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
         <v>38</v>
-      </c>
-      <c r="D17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -980,19 +965,19 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -1000,19 +985,19 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -1020,16 +1005,16 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -1037,23 +1022,24 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/Task Breakdown.xlsx
+++ b/docs/Task Breakdown.xlsx
@@ -615,7 +615,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/docs/Task Breakdown.xlsx
+++ b/docs/Task Breakdown.xlsx
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
